--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S7/S7_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S7/S7_storagemod.xlsx
@@ -14,204 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>95.07725426200479</t>
-  </si>
-  <si>
-    <t>96.96246658102149</t>
-  </si>
-  <si>
-    <t>98.84767890003819</t>
-  </si>
-  <si>
-    <t>100.73289121905489</t>
-  </si>
-  <si>
-    <t>102.44672059997916</t>
-  </si>
-  <si>
-    <t>103.73988276922202</t>
-  </si>
-  <si>
-    <t>105.10315614041178</t>
-  </si>
-  <si>
-    <t>106.13145376896635</t>
-  </si>
-  <si>
-    <t>107.50251727370576</t>
-  </si>
-  <si>
-    <t>109.21634665463004</t>
-  </si>
-  <si>
-    <t>111.01586750460052</t>
-  </si>
-  <si>
-    <t>112.90107982361724</t>
-  </si>
-  <si>
-    <t>114.78629214263393</t>
-  </si>
-  <si>
-    <t>116.67150446165064</t>
-  </si>
-  <si>
-    <t>118.55671678066733</t>
-  </si>
-  <si>
-    <t>120.44192909968403</t>
-  </si>
-  <si>
-    <t>122.32714141870073</t>
-  </si>
-  <si>
-    <t>124.21235373771744</t>
-  </si>
-  <si>
-    <t>126.09756605673414</t>
-  </si>
-  <si>
-    <t>127.98277837575084</t>
-  </si>
-  <si>
-    <t>129.86799069476754</t>
-  </si>
-  <si>
-    <t>131.75320301378423</t>
-  </si>
-  <si>
-    <t>133.63841533280095</t>
-  </si>
-  <si>
-    <t>135.52362765181763</t>
-  </si>
-  <si>
-    <t>137.40883997083435</t>
-  </si>
-  <si>
-    <t>139.25977570223256</t>
-  </si>
-  <si>
-    <t>141.17926460886775</t>
-  </si>
-  <si>
-    <t>143.06447692788444</t>
-  </si>
-  <si>
-    <t>144.94968924690113</t>
-  </si>
-  <si>
-    <t>146.83490156591785</t>
-  </si>
-  <si>
-    <t>148.72011388493456</t>
-  </si>
-  <si>
-    <t>150.00548592062773</t>
-  </si>
-  <si>
-    <t>12842164.104221418</t>
-  </si>
-  <si>
-    <t>12093147.73782513</t>
-  </si>
-  <si>
-    <t>10702854.54483077</t>
-  </si>
-  <si>
-    <t>9021923.280678784</t>
-  </si>
-  <si>
-    <t>7304448.646000603</t>
-  </si>
-  <si>
-    <t>5095092.341952818</t>
-  </si>
-  <si>
-    <t>3663979.4078214727</t>
-  </si>
-  <si>
-    <t>2669611.4593681796</t>
-  </si>
-  <si>
-    <t>1836304.0125852062</t>
-  </si>
-  <si>
-    <t>1305907.1746692718</t>
-  </si>
-  <si>
-    <t>986956.5567656714</t>
-  </si>
-  <si>
-    <t>802074.2859959878</t>
-  </si>
-  <si>
-    <t>637941.8309261212</t>
-  </si>
-  <si>
-    <t>531536.8974092538</t>
-  </si>
-  <si>
-    <t>463611.98184697825</t>
-  </si>
-  <si>
-    <t>412903.5560002979</t>
-  </si>
-  <si>
-    <t>361818.2122957187</t>
-  </si>
-  <si>
-    <t>314719.0921696005</t>
-  </si>
-  <si>
-    <t>281860.2395079211</t>
-  </si>
-  <si>
-    <t>259199.42617925265</t>
-  </si>
-  <si>
-    <t>241479.32525914125</t>
-  </si>
-  <si>
-    <t>224765.5163031845</t>
-  </si>
-  <si>
-    <t>208019.1067105357</t>
-  </si>
-  <si>
-    <t>193577.06830946717</t>
-  </si>
-  <si>
-    <t>181209.02368408508</t>
-  </si>
-  <si>
-    <t>169633.66041877796</t>
-  </si>
-  <si>
-    <t>157135.9179591027</t>
-  </si>
-  <si>
-    <t>144502.60823682058</t>
-  </si>
-  <si>
-    <t>134531.64789632446</t>
-  </si>
-  <si>
-    <t>125448.81673014049</t>
-  </si>
-  <si>
-    <t>115864.04544140061</t>
-  </si>
-  <si>
-    <t>110096.476185056</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -584,259 +392,259 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="A2">
+        <v>95.07725426200479</v>
+      </c>
+      <c r="B2">
+        <v>12842164.10422142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+      <c r="A3">
+        <v>96.96246658102149</v>
+      </c>
+      <c r="B3">
+        <v>12093147.73782513</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="A4">
+        <v>98.84767890003819</v>
+      </c>
+      <c r="B4">
+        <v>10702854.54483077</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="A5">
+        <v>100.7328912190549</v>
+      </c>
+      <c r="B5">
+        <v>9021923.280678784</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="A6">
+        <v>102.4467205999792</v>
+      </c>
+      <c r="B6">
+        <v>7304448.646000603</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="A7">
+        <v>103.739882769222</v>
+      </c>
+      <c r="B7">
+        <v>5095092.341952818</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="A8">
+        <v>105.1031561404118</v>
+      </c>
+      <c r="B8">
+        <v>3663979.407821473</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="A9">
+        <v>106.1314537689664</v>
+      </c>
+      <c r="B9">
+        <v>2669611.45936818</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="A10">
+        <v>107.5025172737058</v>
+      </c>
+      <c r="B10">
+        <v>1836304.012585206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
+      <c r="A11">
+        <v>109.21634665463</v>
+      </c>
+      <c r="B11">
+        <v>1305907.174669272</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
+      <c r="A12">
+        <v>111.0158675046005</v>
+      </c>
+      <c r="B12">
+        <v>986956.5567656714</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="A13">
+        <v>112.9010798236172</v>
+      </c>
+      <c r="B13">
+        <v>802074.2859959878</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+      <c r="A14">
+        <v>114.7862921426339</v>
+      </c>
+      <c r="B14">
+        <v>637941.8309261212</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="A15">
+        <v>116.6715044616506</v>
+      </c>
+      <c r="B15">
+        <v>531536.8974092538</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+      <c r="A16">
+        <v>118.5567167806673</v>
+      </c>
+      <c r="B16">
+        <v>463611.9818469782</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
+      <c r="A17">
+        <v>120.441929099684</v>
+      </c>
+      <c r="B17">
+        <v>412903.5560002979</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
+      <c r="A18">
+        <v>122.3271414187007</v>
+      </c>
+      <c r="B18">
+        <v>361818.2122957187</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+      <c r="A19">
+        <v>124.2123537377174</v>
+      </c>
+      <c r="B19">
+        <v>314719.0921696005</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="A20">
+        <v>126.0975660567341</v>
+      </c>
+      <c r="B20">
+        <v>281860.2395079211</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
+      <c r="A21">
+        <v>127.9827783757508</v>
+      </c>
+      <c r="B21">
+        <v>259199.4261792527</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="A22">
+        <v>129.8679906947675</v>
+      </c>
+      <c r="B22">
+        <v>241479.3252591412</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
+      <c r="A23">
+        <v>131.7532030137842</v>
+      </c>
+      <c r="B23">
+        <v>224765.5163031845</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
+      <c r="A24">
+        <v>133.6384153328009</v>
+      </c>
+      <c r="B24">
+        <v>208019.1067105357</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
+      <c r="A25">
+        <v>135.5236276518176</v>
+      </c>
+      <c r="B25">
+        <v>193577.0683094672</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
+      <c r="A26">
+        <v>137.4088399708344</v>
+      </c>
+      <c r="B26">
+        <v>181209.0236840851</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
+      <c r="A27">
+        <v>139.2597757022326</v>
+      </c>
+      <c r="B27">
+        <v>169633.660418778</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
+      <c r="A28">
+        <v>141.1792646088678</v>
+      </c>
+      <c r="B28">
+        <v>157135.9179591027</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
+      <c r="A29">
+        <v>143.0644769278844</v>
+      </c>
+      <c r="B29">
+        <v>144502.6082368206</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="A30">
+        <v>144.9496892469011</v>
+      </c>
+      <c r="B30">
+        <v>134531.6478963245</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
+      <c r="A31">
+        <v>146.8349015659178</v>
+      </c>
+      <c r="B31">
+        <v>125448.8167301405</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
+      <c r="A32">
+        <v>148.7201138849346</v>
+      </c>
+      <c r="B32">
+        <v>115864.0454414006</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
+      <c r="A33">
+        <v>150.0054859206277</v>
+      </c>
+      <c r="B33">
+        <v>110096.476185056</v>
       </c>
     </row>
   </sheetData>
